--- a/GRUPO SOLAR/DOMMUS/2025-08/DOMUS 08 DE 2025 EXCELL.xlsx
+++ b/GRUPO SOLAR/DOMMUS/2025-08/DOMUS 08 DE 2025 EXCELL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.missiba\Desktop\projetoalocama\GRUPO SOLAR\DOMMUS\2025-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476880FC-370E-43E0-A846-B1AF29F7AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0471B57B-A317-482E-BF2D-317DDCA40AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
